--- a/biology/Zoologie/Barylambdidae/Barylambdidae.xlsx
+++ b/biology/Zoologie/Barylambdidae/Barylambdidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barylambdidés
 Les Barylambdidae (barylambdidés en français) constituent une famille fossile de mammifères pantodontes ayant vécu de la fin du Paléocène jusqu'à l'Éocène inférieur (Yprésien), il y a environ entre 61,7 et 50,3 Ma (millions d'années).
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Barylambdidae est décrite en 1939 par le paléontologue américain Bryan Patterson (d) (1909-1979)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Barylambdidae est décrite en 1939 par le paléontologue américain Bryan Patterson (d) (1909-1979),.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les pantodontes, les barylambdidés étaient des plantigrades à cinq doigts, au corps massif.
 </t>
@@ -574,7 +590,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>† Barylambda Patterson, 1937
 † Haplolambda Patterson, 1939</t>
